--- a/Document/工作笔记/工作笔记815：importer源码执行顺序.xlsx
+++ b/Document/工作笔记/工作笔记815：importer源码执行顺序.xlsx
@@ -249,7 +249,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>、显示下图，填入参数即可上传文件的视图框</a:t>
+            <a:t>、显示下图，填参即可上传文件的视图框</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
             <a:solidFill>
